--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_10_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_10_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>601390.5534365474</v>
+        <v>527297.6620977707</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10442867.30591888</v>
+        <v>10437682.3101133</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11032096.60745565</v>
+        <v>11023074.59807984</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7723267.807873763</v>
+        <v>7731649.749637293</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.8707348436268</v>
+        <v>411.6729560199217</v>
       </c>
       <c r="H11" t="n">
-        <v>165.745690121135</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>126.3064237640716</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0552703882194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>11.96118286533977</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>9.773691112672568</v>
+        <v>93.47880518414398</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.53032196995869</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>137.5750138932992</v>
+        <v>135.6094352333961</v>
       </c>
       <c r="T12" t="n">
-        <v>192.7632183107638</v>
+        <v>192.3366854209288</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8205739680685</v>
+        <v>208.5014421348527</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.5398113612452</v>
+        <v>147.7510386106894</v>
       </c>
       <c r="I13" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.9887561650171</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2302187190875</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.02206344413843</v>
+        <v>114.1618414031916</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.6729560199217</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>68.33779824574647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>126.3064237640716</v>
       </c>
       <c r="T14" t="n">
-        <v>207.5484539999469</v>
+        <v>207.206481068835</v>
       </c>
       <c r="U14" t="n">
-        <v>151.7909598789601</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>93.25496790226303</v>
+        <v>135.4014128471632</v>
       </c>
       <c r="H15" t="n">
-        <v>93.8824878626871</v>
+        <v>93.47880518414399</v>
       </c>
       <c r="I15" t="n">
-        <v>23.96942688665419</v>
+        <v>14.88595159085062</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>136.3858185865433</v>
+        <v>135.6094352333961</v>
       </c>
       <c r="T15" t="n">
-        <v>192.5051615251891</v>
+        <v>192.3366854209288</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8163619421886</v>
+        <v>225.8136120601822</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3978265516318</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.062595734014</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>107.5400250637698</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>105.6594478992934</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2302187190875</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>92.33564205061668</v>
+        <v>12.17933950297499</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>198.9430992003371</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>411.6729560199217</v>
       </c>
       <c r="H17" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>154.2995296830067</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0552703882194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3343964518635</v>
+        <v>135.4014128471632</v>
       </c>
       <c r="H18" t="n">
-        <v>92.83156789269653</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705013</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.3646350838588</v>
+        <v>98.90497961500695</v>
       </c>
       <c r="T18" t="n">
-        <v>192.0665623188214</v>
+        <v>192.3366854209288</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8136120601822</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>84.24617032398322</v>
+        <v>47.5258136825501</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>195.6415993865939</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>220.9887561650171</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2302187190875</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>336.4295791864235</v>
+        <v>411.6729560199217</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>126.3064237640716</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>207.206481068835</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>116.5501735823715</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3343964518635</v>
+        <v>135.4014128471632</v>
       </c>
       <c r="H21" t="n">
-        <v>92.83156789269626</v>
+        <v>93.47880518414399</v>
       </c>
       <c r="I21" t="n">
-        <v>20.2229592370504</v>
+        <v>5.42617443086298</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>192.0665623188214</v>
+        <v>192.3366854209288</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8136120601822</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>166.3627843393969</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>177.1061098978718</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>242.3034610895036</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>226.6923007769141</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>54.72594858344443</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2453,7 +2453,7 @@
         <v>192.0665623188214</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8092030868075</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>103.3387326418233</v>
       </c>
       <c r="G25" t="n">
-        <v>103.3387326418233</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>25.86566815914891</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>203.0521551059259</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>112.3900283529968</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>131.6945929587564</v>
       </c>
       <c r="T28" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>54.21232603959518</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>55.77831367490857</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>79.41653965146595</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>220.7486959972119</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>160.5834417627505</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>27.03658317826194</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>103.3387326418233</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>29.12267715863063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>186.5453171283413</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>75.73121691028189</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>105.3561439887633</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>110.3838034696614</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>26.9886594175484</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>224.2794099422272</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>50.9807481254283</v>
+        <v>75.92858280499141</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>141.1483400922264</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.994063894866226</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T42" t="n">
         <v>192.0665623188214</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>69.7629318697772</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>198.6076632291042</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>180.6261618334214</v>
       </c>
       <c r="U44" t="n">
-        <v>146.9246168288995</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>35.09655117409386</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
@@ -4155,7 +4155,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>64.57009008111716</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1781.859986840536</v>
+        <v>1629.760253533833</v>
       </c>
       <c r="C11" t="n">
-        <v>1781.859986840536</v>
+        <v>1260.797736593421</v>
       </c>
       <c r="D11" t="n">
-        <v>1423.594288233785</v>
+        <v>1260.797736593421</v>
       </c>
       <c r="E11" t="n">
-        <v>1037.806035635541</v>
+        <v>875.0094839951771</v>
       </c>
       <c r="F11" t="n">
-        <v>626.8201308459334</v>
+        <v>464.0235792055696</v>
       </c>
       <c r="G11" t="n">
-        <v>210.7890855493406</v>
+        <v>48.1923104985779</v>
       </c>
       <c r="H11" t="n">
-        <v>43.36919653809315</v>
+        <v>48.1923104985779</v>
       </c>
       <c r="I11" t="n">
-        <v>43.36919653809315</v>
+        <v>48.1923104985779</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5078184301906</v>
+        <v>173.9493005247271</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232728</v>
+        <v>413.1649476832213</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711879</v>
+        <v>746.8348727357516</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.148464578732</v>
+        <v>1149.776393112415</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135169</v>
+        <v>1563.851736929996</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545599</v>
+        <v>1941.516081055135</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.630958172451</v>
+        <v>2229.342860333578</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904657</v>
+        <v>2397.316038134678</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904657</v>
+        <v>2409.615524928895</v>
       </c>
       <c r="S11" t="n">
-        <v>2168.459826904657</v>
+        <v>2282.03327870256</v>
       </c>
       <c r="T11" t="n">
-        <v>2168.459826904657</v>
+        <v>2282.03327870256</v>
       </c>
       <c r="U11" t="n">
-        <v>2168.459826904657</v>
+        <v>2028.442096492237</v>
       </c>
       <c r="V11" t="n">
-        <v>2168.459826904657</v>
+        <v>2028.442096492237</v>
       </c>
       <c r="W11" t="n">
-        <v>2168.459826904657</v>
+        <v>2028.442096492237</v>
       </c>
       <c r="X11" t="n">
-        <v>2168.459826904657</v>
+        <v>2016.360093597955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2168.459826904657</v>
+        <v>2016.360093597955</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>533.4666540631165</v>
+        <v>794.5326989388224</v>
       </c>
       <c r="C12" t="n">
-        <v>359.0136247819895</v>
+        <v>620.0796696576954</v>
       </c>
       <c r="D12" t="n">
-        <v>359.0136247819895</v>
+        <v>471.1452599964441</v>
       </c>
       <c r="E12" t="n">
-        <v>199.776169776534</v>
+        <v>311.9078049909886</v>
       </c>
       <c r="F12" t="n">
-        <v>53.24161180341898</v>
+        <v>165.3732470178736</v>
       </c>
       <c r="G12" t="n">
-        <v>53.24161180341898</v>
+        <v>165.3732470178736</v>
       </c>
       <c r="H12" t="n">
-        <v>43.36919653809315</v>
+        <v>70.95021147833415</v>
       </c>
       <c r="I12" t="n">
-        <v>43.36919653809315</v>
+        <v>48.1923104985779</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55356510562345</v>
+        <v>229.1045902665352</v>
       </c>
       <c r="K12" t="n">
-        <v>246.6448318504525</v>
+        <v>403.112750146296</v>
       </c>
       <c r="L12" t="n">
-        <v>504.1959674104405</v>
+        <v>683.4107362004796</v>
       </c>
       <c r="M12" t="n">
-        <v>1040.889774569343</v>
+        <v>1029.862133296091</v>
       </c>
       <c r="N12" t="n">
-        <v>1569.118166444749</v>
+        <v>1399.891712890265</v>
       </c>
       <c r="O12" t="n">
-        <v>1860.477412699316</v>
+        <v>1716.176691874023</v>
       </c>
       <c r="P12" t="n">
-        <v>2074.985828260217</v>
+        <v>2074.573369660506</v>
       </c>
       <c r="Q12" t="n">
-        <v>2168.459826904657</v>
+        <v>2389.396761393576</v>
       </c>
       <c r="R12" t="n">
-        <v>2168.459826904657</v>
+        <v>2409.615524928895</v>
       </c>
       <c r="S12" t="n">
-        <v>2029.495166406375</v>
+        <v>2272.636297420414</v>
       </c>
       <c r="T12" t="n">
-        <v>1834.784844880351</v>
+        <v>2078.356817197253</v>
       </c>
       <c r="U12" t="n">
-        <v>1606.683255013616</v>
+        <v>1867.749299889321</v>
       </c>
       <c r="V12" t="n">
-        <v>1371.531146781873</v>
+        <v>1632.597191657579</v>
       </c>
       <c r="W12" t="n">
-        <v>1117.293790053671</v>
+        <v>1378.359834929377</v>
       </c>
       <c r="X12" t="n">
-        <v>909.4422898481384</v>
+        <v>1170.508334723844</v>
       </c>
       <c r="Y12" t="n">
-        <v>701.6819910831846</v>
+        <v>962.7480359588903</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>938.7648881367496</v>
+        <v>661.175007850919</v>
       </c>
       <c r="C13" t="n">
-        <v>769.8287052088427</v>
+        <v>492.2388249230121</v>
       </c>
       <c r="D13" t="n">
-        <v>619.712065796507</v>
+        <v>492.2388249230121</v>
       </c>
       <c r="E13" t="n">
-        <v>471.7989722141139</v>
+        <v>344.325731340619</v>
       </c>
       <c r="F13" t="n">
-        <v>471.7989722141139</v>
+        <v>197.4357838427086</v>
       </c>
       <c r="G13" t="n">
-        <v>303.6661428091322</v>
+        <v>197.4357838427086</v>
       </c>
       <c r="H13" t="n">
-        <v>153.6259293129249</v>
+        <v>48.1923104985779</v>
       </c>
       <c r="I13" t="n">
-        <v>43.36919653809315</v>
+        <v>48.1923104985779</v>
       </c>
       <c r="J13" t="n">
-        <v>58.69630920174252</v>
+        <v>69.72897615227002</v>
       </c>
       <c r="K13" t="n">
-        <v>213.7203003246709</v>
+        <v>234.9571703371434</v>
       </c>
       <c r="L13" t="n">
-        <v>467.624070672889</v>
+        <v>501.9188074204982</v>
       </c>
       <c r="M13" t="n">
-        <v>745.7191196640795</v>
+        <v>793.7815460358763</v>
       </c>
       <c r="N13" t="n">
-        <v>1022.63630638511</v>
+        <v>1084.13905749413</v>
       </c>
       <c r="O13" t="n">
-        <v>1262.397853152954</v>
+        <v>1336.314919536397</v>
       </c>
       <c r="P13" t="n">
-        <v>1444.034594271088</v>
+        <v>1528.574252011034</v>
       </c>
       <c r="Q13" t="n">
-        <v>1486.355378693649</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="R13" t="n">
-        <v>1377.190882465731</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="S13" t="n">
-        <v>1178.011396849957</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="T13" t="n">
-        <v>1178.011396849957</v>
+        <v>1355.028602253818</v>
       </c>
       <c r="U13" t="n">
-        <v>1178.011396849957</v>
+        <v>1065.907169204235</v>
       </c>
       <c r="V13" t="n">
-        <v>1178.011396849957</v>
+        <v>1065.907169204235</v>
       </c>
       <c r="W13" t="n">
-        <v>1178.011396849957</v>
+        <v>776.4899991672742</v>
       </c>
       <c r="X13" t="n">
-        <v>1178.011396849957</v>
+        <v>776.4899991672742</v>
       </c>
       <c r="Y13" t="n">
-        <v>1120.413352966989</v>
+        <v>661.175007850919</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1212.023904421951</v>
+        <v>1329.825815629529</v>
       </c>
       <c r="C14" t="n">
-        <v>843.0613874815393</v>
+        <v>1329.825815629529</v>
       </c>
       <c r="D14" t="n">
-        <v>843.0613874815393</v>
+        <v>1329.825815629529</v>
       </c>
       <c r="E14" t="n">
-        <v>457.2731348832951</v>
+        <v>944.0375630312847</v>
       </c>
       <c r="F14" t="n">
-        <v>46.28723009368751</v>
+        <v>533.0516582416772</v>
       </c>
       <c r="G14" t="n">
-        <v>46.28723009368751</v>
+        <v>117.2203895346855</v>
       </c>
       <c r="H14" t="n">
-        <v>46.28723009368751</v>
+        <v>117.2203895346855</v>
       </c>
       <c r="I14" t="n">
-        <v>46.28723009368751</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="J14" t="n">
-        <v>165.4801356398059</v>
+        <v>173.9493005247271</v>
       </c>
       <c r="K14" t="n">
-        <v>394.8579217260995</v>
+        <v>413.1649476832212</v>
       </c>
       <c r="L14" t="n">
-        <v>716.3231101953827</v>
+        <v>746.8348727357529</v>
       </c>
       <c r="M14" t="n">
-        <v>1105.684509522202</v>
+        <v>1149.776393112416</v>
       </c>
       <c r="N14" t="n">
-        <v>1505.959991733773</v>
+        <v>1563.851736929997</v>
       </c>
       <c r="O14" t="n">
-        <v>1870.59351786236</v>
+        <v>1941.516081055135</v>
       </c>
       <c r="P14" t="n">
-        <v>2147.298795459377</v>
+        <v>2229.342860333578</v>
       </c>
       <c r="Q14" t="n">
-        <v>2306.920188664029</v>
+        <v>2397.316038134679</v>
       </c>
       <c r="R14" t="n">
-        <v>2314.361504684376</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="S14" t="n">
-        <v>2314.361504684376</v>
+        <v>2282.033278702561</v>
       </c>
       <c r="T14" t="n">
-        <v>2104.716601654126</v>
+        <v>2072.733802875455</v>
       </c>
       <c r="U14" t="n">
-        <v>1951.392399756187</v>
+        <v>2072.733802875455</v>
       </c>
       <c r="V14" t="n">
-        <v>1951.392399756187</v>
+        <v>2072.733802875455</v>
       </c>
       <c r="W14" t="n">
-        <v>1598.623744486073</v>
+        <v>1719.965147605341</v>
       </c>
       <c r="X14" t="n">
-        <v>1598.623744486073</v>
+        <v>1719.965147605341</v>
       </c>
       <c r="Y14" t="n">
-        <v>1598.623744486073</v>
+        <v>1329.825815629529</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>888.6859574202972</v>
+        <v>777.0456586102075</v>
       </c>
       <c r="C15" t="n">
-        <v>714.2329281391702</v>
+        <v>602.5926293290805</v>
       </c>
       <c r="D15" t="n">
-        <v>565.2985184779189</v>
+        <v>453.6582196678293</v>
       </c>
       <c r="E15" t="n">
-        <v>406.0610634724634</v>
+        <v>294.4207646623738</v>
       </c>
       <c r="F15" t="n">
-        <v>259.5265054993484</v>
+        <v>294.4207646623738</v>
       </c>
       <c r="G15" t="n">
-        <v>165.3295682243353</v>
+        <v>157.6516607763503</v>
       </c>
       <c r="H15" t="n">
-        <v>70.49877240343922</v>
+        <v>63.22862523681087</v>
       </c>
       <c r="I15" t="n">
-        <v>46.28723009368751</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="J15" t="n">
-        <v>223.289986113819</v>
+        <v>229.1045902665352</v>
       </c>
       <c r="K15" t="n">
-        <v>505.2219067906763</v>
+        <v>475.0963293229541</v>
       </c>
       <c r="L15" t="n">
-        <v>776.5351208688088</v>
+        <v>755.3943153771377</v>
       </c>
       <c r="M15" t="n">
-        <v>1112.501712852685</v>
+        <v>1101.845712472749</v>
       </c>
       <c r="N15" t="n">
-        <v>1471.768985742327</v>
+        <v>1471.875292066923</v>
       </c>
       <c r="O15" t="n">
-        <v>1778.208556678719</v>
+        <v>2068.255134486824</v>
       </c>
       <c r="P15" t="n">
-        <v>2004.820262301694</v>
+        <v>2302.768648054316</v>
       </c>
       <c r="Q15" t="n">
-        <v>2314.361504684376</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="R15" t="n">
-        <v>2314.361504684376</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="S15" t="n">
-        <v>2176.598051566655</v>
+        <v>2272.636297420415</v>
       </c>
       <c r="T15" t="n">
-        <v>1982.148393460403</v>
+        <v>2078.356817197254</v>
       </c>
       <c r="U15" t="n">
-        <v>1754.051058165263</v>
+        <v>1850.262259560707</v>
       </c>
       <c r="V15" t="n">
-        <v>1518.898949933521</v>
+        <v>1615.110151328964</v>
       </c>
       <c r="W15" t="n">
-        <v>1264.661593205319</v>
+        <v>1360.872794600762</v>
       </c>
       <c r="X15" t="n">
-        <v>1264.661593205319</v>
+        <v>1153.021294395229</v>
       </c>
       <c r="Y15" t="n">
-        <v>1056.901294440365</v>
+        <v>945.2609956302756</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>939.516224147046</v>
+        <v>511.9315345067882</v>
       </c>
       <c r="C16" t="n">
-        <v>770.5800412191392</v>
+        <v>342.9953515788814</v>
       </c>
       <c r="D16" t="n">
-        <v>620.4634018068034</v>
+        <v>342.9953515788814</v>
       </c>
       <c r="E16" t="n">
-        <v>472.5503082244103</v>
+        <v>195.0822579964883</v>
       </c>
       <c r="F16" t="n">
-        <v>472.5503082244103</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="G16" t="n">
-        <v>304.4716955459944</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="H16" t="n">
-        <v>154.9135180368893</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="I16" t="n">
-        <v>46.28723009368751</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="J16" t="n">
-        <v>65.37118618642407</v>
+        <v>69.72897615227002</v>
       </c>
       <c r="K16" t="n">
-        <v>226.5688251200422</v>
+        <v>234.9571703371434</v>
       </c>
       <c r="L16" t="n">
-        <v>488.3727391533949</v>
+        <v>501.9188074204982</v>
       </c>
       <c r="M16" t="n">
-        <v>774.7973819786796</v>
+        <v>793.7815460358763</v>
       </c>
       <c r="N16" t="n">
-        <v>1059.846103409987</v>
+        <v>1084.13905749413</v>
       </c>
       <c r="O16" t="n">
-        <v>1307.118438609803</v>
+        <v>1336.314919536397</v>
       </c>
       <c r="P16" t="n">
-        <v>1495.181956760286</v>
+        <v>1528.574252011034</v>
       </c>
       <c r="Q16" t="n">
-        <v>1541.95230847426</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="R16" t="n">
-        <v>1435.225593424469</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="S16" t="n">
-        <v>1435.225593424469</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="T16" t="n">
-        <v>1435.225593424469</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="U16" t="n">
-        <v>1435.225593424469</v>
+        <v>1289.128135027484</v>
       </c>
       <c r="V16" t="n">
-        <v>1435.225593424469</v>
+        <v>1034.443646821597</v>
       </c>
       <c r="W16" t="n">
-        <v>1435.225593424469</v>
+        <v>745.0264767846365</v>
       </c>
       <c r="X16" t="n">
-        <v>1341.957268120816</v>
+        <v>732.7241136503184</v>
       </c>
       <c r="Y16" t="n">
-        <v>1121.164688977286</v>
+        <v>511.9315345067882</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2361.386702945269</v>
+        <v>1260.797736593421</v>
       </c>
       <c r="C17" t="n">
-        <v>1992.424186004858</v>
+        <v>1260.797736593421</v>
       </c>
       <c r="D17" t="n">
-        <v>1634.158487398107</v>
+        <v>1260.797736593421</v>
       </c>
       <c r="E17" t="n">
-        <v>1248.370234799863</v>
+        <v>875.0094839951771</v>
       </c>
       <c r="F17" t="n">
-        <v>837.3843300102556</v>
+        <v>464.0235792055696</v>
       </c>
       <c r="G17" t="n">
-        <v>421.6795797345444</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="H17" t="n">
-        <v>117.6204357321147</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362813</v>
+        <v>173.9493005247273</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816072</v>
+        <v>413.1649476832216</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872906</v>
+        <v>746.8348727357527</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923561</v>
+        <v>1149.776393112416</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230816</v>
+        <v>1563.851736929997</v>
       </c>
       <c r="O17" t="n">
-        <v>2055.228484740839</v>
+        <v>1941.516081055135</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764997</v>
+        <v>2229.342860333578</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>2397.316038134679</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400155</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="T17" t="n">
-        <v>2562.339328400155</v>
+        <v>2253.75741413798</v>
       </c>
       <c r="U17" t="n">
-        <v>2562.339328400155</v>
+        <v>2000.166231927657</v>
       </c>
       <c r="V17" t="n">
-        <v>2562.339328400155</v>
+        <v>2000.166231927657</v>
       </c>
       <c r="W17" t="n">
-        <v>2562.339328400155</v>
+        <v>1647.397576657543</v>
       </c>
       <c r="X17" t="n">
-        <v>2562.339328400155</v>
+        <v>1647.397576657543</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.339328400155</v>
+        <v>1647.397576657543</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966389</v>
+        <v>814.1208663055502</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155119</v>
+        <v>639.6678370244232</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542606</v>
+        <v>490.7334273631719</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488051</v>
+        <v>331.4959723577164</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756901</v>
+        <v>184.9614143846014</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182523</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057901</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500114</v>
+        <v>104.2744652795304</v>
       </c>
       <c r="K18" t="n">
-        <v>507.2413987429759</v>
+        <v>439.9130518055598</v>
       </c>
       <c r="L18" t="n">
-        <v>801.9449557744476</v>
+        <v>720.2110378597433</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.206974733668</v>
+        <v>1066.662434955355</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.492103330613</v>
+        <v>1436.692014549528</v>
       </c>
       <c r="O18" t="n">
-        <v>1884.562538506775</v>
+        <v>1752.976993533286</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2302.768648054316</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400155</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.617474780096</v>
+        <v>2309.711505115758</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.610846175226</v>
+        <v>2115.432024892597</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047138</v>
+        <v>1887.337467256049</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.368633815395</v>
+        <v>1652.185359024307</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087194</v>
+        <v>1397.948002296105</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881661</v>
+        <v>1190.096502090572</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.519478116707</v>
+        <v>982.3362033256183</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.2434865835148</v>
+        <v>96.19818290519419</v>
       </c>
       <c r="C19" t="n">
-        <v>452.2434865835148</v>
+        <v>96.19818290519419</v>
       </c>
       <c r="D19" t="n">
-        <v>452.2434865835148</v>
+        <v>96.19818290519419</v>
       </c>
       <c r="E19" t="n">
-        <v>304.3303930011217</v>
+        <v>96.19818290519419</v>
       </c>
       <c r="F19" t="n">
-        <v>219.2332512597245</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="G19" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312199</v>
+        <v>69.72897615227002</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020475</v>
+        <v>234.9571703371434</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693234</v>
+        <v>501.9188074204982</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096587</v>
+        <v>793.7815460358763</v>
       </c>
       <c r="N19" t="n">
-        <v>1123.088724245823</v>
+        <v>1084.13905749413</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999035</v>
+        <v>1336.314919536397</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171024</v>
+        <v>1528.574252011034</v>
       </c>
       <c r="Q19" t="n">
-        <v>1636.446120074497</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="S19" t="n">
-        <v>1439.817372234359</v>
+        <v>1380.631790918892</v>
       </c>
       <c r="T19" t="n">
-        <v>1216.838891429094</v>
+        <v>1157.410825095642</v>
       </c>
       <c r="U19" t="n">
-        <v>927.7205539329318</v>
+        <v>868.289392046059</v>
       </c>
       <c r="V19" t="n">
-        <v>673.036065727045</v>
+        <v>613.6049038401721</v>
       </c>
       <c r="W19" t="n">
-        <v>673.036065727045</v>
+        <v>324.1877338032115</v>
       </c>
       <c r="X19" t="n">
-        <v>673.036065727045</v>
+        <v>96.19818290519419</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.2434865835148</v>
+        <v>96.19818290519419</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.907945722349</v>
+        <v>1602.237699542339</v>
       </c>
       <c r="C20" t="n">
-        <v>1491.907945722349</v>
+        <v>1233.275182601928</v>
       </c>
       <c r="D20" t="n">
-        <v>1491.907945722349</v>
+        <v>875.0094839951771</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.119693124105</v>
+        <v>875.0094839951771</v>
       </c>
       <c r="F20" t="n">
-        <v>695.133788334497</v>
+        <v>464.0235792055696</v>
       </c>
       <c r="G20" t="n">
-        <v>355.3059305704328</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362817</v>
+        <v>173.9493005247268</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816084</v>
+        <v>413.164947683221</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872915</v>
+        <v>746.834872735752</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923562</v>
+        <v>1149.776393112415</v>
       </c>
       <c r="N20" t="n">
-        <v>1656.671415230817</v>
+        <v>1563.851736929996</v>
       </c>
       <c r="O20" t="n">
-        <v>2055.22848474084</v>
+        <v>1941.516081055135</v>
       </c>
       <c r="P20" t="n">
-        <v>2360.886721764997</v>
+        <v>2229.342860333579</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.25058172385</v>
+        <v>2397.316038134679</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400155</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="S20" t="n">
-        <v>2562.339328400155</v>
+        <v>2282.033278702561</v>
       </c>
       <c r="T20" t="n">
-        <v>2562.339328400155</v>
+        <v>2072.733802875455</v>
       </c>
       <c r="U20" t="n">
-        <v>2562.339328400155</v>
+        <v>1955.006354812453</v>
       </c>
       <c r="V20" t="n">
-        <v>2231.276441056585</v>
+        <v>1955.006354812453</v>
       </c>
       <c r="W20" t="n">
-        <v>1878.507785786471</v>
+        <v>1602.237699542339</v>
       </c>
       <c r="X20" t="n">
-        <v>1878.507785786471</v>
+        <v>1602.237699542339</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.507785786471</v>
+        <v>1602.237699542339</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966389</v>
+        <v>914.0248861186885</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155119</v>
+        <v>739.5718568375615</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542606</v>
+        <v>590.6374471763103</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488051</v>
+        <v>431.3999921708548</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756901</v>
+        <v>284.8654341977398</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182523</v>
+        <v>148.0963303117163</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057928</v>
+        <v>53.67329477217689</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5972052500114</v>
+        <v>229.1045902665351</v>
       </c>
       <c r="K21" t="n">
-        <v>298.3188265310613</v>
+        <v>664.9333347887487</v>
       </c>
       <c r="L21" t="n">
-        <v>815.114548125109</v>
+        <v>945.2313208429321</v>
       </c>
       <c r="M21" t="n">
-        <v>1178.376567084329</v>
+        <v>1291.682717938544</v>
       </c>
       <c r="N21" t="n">
-        <v>1565.661695681274</v>
+        <v>1661.712297532717</v>
       </c>
       <c r="O21" t="n">
-        <v>2199.840679460312</v>
+        <v>1977.997276516475</v>
       </c>
       <c r="P21" t="n">
-        <v>2447.023413292609</v>
+        <v>2212.510790083967</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400155</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400155</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="S21" t="n">
-        <v>2426.617474780096</v>
+        <v>2409.615524928896</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.610846175226</v>
+        <v>2215.336044705735</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047138</v>
+        <v>1987.241487069188</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.368633815395</v>
+        <v>1752.089378837445</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087194</v>
+        <v>1497.852022109243</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.279776881661</v>
+        <v>1290.00052190371</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.519478116707</v>
+        <v>1082.240223138757</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.2860735999672</v>
+        <v>661.1552074956585</v>
       </c>
       <c r="C22" t="n">
-        <v>369.3498906720603</v>
+        <v>661.1552074956585</v>
       </c>
       <c r="D22" t="n">
-        <v>219.2332512597245</v>
+        <v>511.0385680833227</v>
       </c>
       <c r="E22" t="n">
-        <v>219.2332512597245</v>
+        <v>363.1254745009296</v>
       </c>
       <c r="F22" t="n">
-        <v>219.2332512597245</v>
+        <v>216.2355270030192</v>
       </c>
       <c r="G22" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="H22" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="I22" t="n">
-        <v>51.24678656800311</v>
+        <v>48.19231049857792</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312199</v>
+        <v>69.72897615227001</v>
       </c>
       <c r="K22" t="n">
-        <v>248.4064713020475</v>
+        <v>234.9571703371433</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693234</v>
+        <v>501.9188074204982</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096587</v>
+        <v>793.7815460358763</v>
       </c>
       <c r="N22" t="n">
-        <v>1123.088724245823</v>
+        <v>1084.13905749413</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999035</v>
+        <v>1336.314919536397</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171024</v>
+        <v>1528.574252011034</v>
       </c>
       <c r="Q22" t="n">
-        <v>1636.446120074497</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="R22" t="n">
-        <v>1636.446120074497</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="S22" t="n">
-        <v>1636.446120074497</v>
+        <v>1578.249568077068</v>
       </c>
       <c r="T22" t="n">
-        <v>1413.467639269233</v>
+        <v>1399.354507574167</v>
       </c>
       <c r="U22" t="n">
-        <v>1413.467639269233</v>
+        <v>1399.354507574167</v>
       </c>
       <c r="V22" t="n">
-        <v>1413.467639269233</v>
+        <v>1399.354507574167</v>
       </c>
       <c r="W22" t="n">
-        <v>1168.716668471754</v>
+        <v>1109.937337537206</v>
       </c>
       <c r="X22" t="n">
-        <v>940.727117573737</v>
+        <v>881.9477866391886</v>
       </c>
       <c r="Y22" t="n">
-        <v>719.9345384302069</v>
+        <v>661.1552074956585</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1445.96558289315</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C23" t="n">
-        <v>1077.003065952738</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D23" t="n">
-        <v>1077.003065952738</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="E23" t="n">
-        <v>691.2148133544936</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="F23" t="n">
-        <v>280.228908564886</v>
+        <v>522.2302727865874</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800311</v>
+        <v>106.5255225108763</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800311</v>
+        <v>106.5255225108763</v>
       </c>
       <c r="I23" t="n">
         <v>51.24678656800311</v>
@@ -5995,7 +5995,7 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
@@ -6016,25 +6016,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U23" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V23" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W23" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X23" t="n">
-        <v>1836.104914868961</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y23" t="n">
-        <v>1445.96558289315</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E24" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G24" t="n">
         <v>165.443278618252</v>
@@ -6068,7 +6068,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145203</v>
       </c>
       <c r="K24" t="n">
         <v>614.543024838023</v>
@@ -6110,7 +6110,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6135,7 +6135,7 @@
         <v>155.629344792067</v>
       </c>
       <c r="F25" t="n">
-        <v>155.629344792067</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G25" t="n">
         <v>51.24678656800311</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1524.3658339278</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C26" t="n">
-        <v>1155.403316987388</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D26" t="n">
-        <v>797.1376183806378</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E26" t="n">
-        <v>797.1376183806378</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F26" t="n">
-        <v>797.1376183806378</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G26" t="n">
-        <v>381.4328681049267</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H26" t="n">
-        <v>77.37372410249696</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I26" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
@@ -6259,19 +6259,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U26" t="n">
-        <v>2228.894479532451</v>
+        <v>2023.791292556768</v>
       </c>
       <c r="V26" t="n">
-        <v>1897.83159218888</v>
+        <v>2023.791292556768</v>
       </c>
       <c r="W26" t="n">
-        <v>1897.83159218888</v>
+        <v>2023.791292556768</v>
       </c>
       <c r="X26" t="n">
-        <v>1524.3658339278</v>
+        <v>1650.325534295688</v>
       </c>
       <c r="Y26" t="n">
-        <v>1524.3658339278</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756901</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I27" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>507.2413987429759</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L27" t="n">
-        <v>801.9449557744476</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M27" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O27" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P27" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q27" t="n">
         <v>2562.339328400155</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1409.718098398547</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C28" t="n">
-        <v>1240.78191547064</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D28" t="n">
-        <v>1090.665276058305</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E28" t="n">
-        <v>977.1399948936614</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F28" t="n">
-        <v>977.1399948936614</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G28" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H28" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I28" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J28" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K28" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L28" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M28" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N28" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O28" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P28" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q28" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>2263.127174075599</v>
+        <v>1503.421278702016</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.148693270334</v>
+        <v>1280.442797896752</v>
       </c>
       <c r="U28" t="n">
-        <v>2040.148693270334</v>
+        <v>991.3244604005894</v>
       </c>
       <c r="V28" t="n">
-        <v>2040.148693270334</v>
+        <v>736.6399721947025</v>
       </c>
       <c r="W28" t="n">
-        <v>2040.148693270334</v>
+        <v>447.2228021577419</v>
       </c>
       <c r="X28" t="n">
-        <v>1812.159142372317</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="Y28" t="n">
-        <v>1591.366563228787</v>
+        <v>219.2332512597245</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>918.0161179218655</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="C29" t="n">
-        <v>918.0161179218655</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="D29" t="n">
-        <v>559.7504193151151</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E29" t="n">
-        <v>173.9621667168709</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F29" t="n">
-        <v>117.6204357321147</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G29" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I29" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6499,16 +6499,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V29" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W29" t="n">
-        <v>1291.481876182945</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X29" t="n">
-        <v>918.0161179218655</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y29" t="n">
-        <v>918.0161179218655</v>
+        <v>1622.544763526516</v>
       </c>
     </row>
     <row r="30">
@@ -6524,43 +6524,43 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756901</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L30" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M30" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N30" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O30" t="n">
-        <v>1676.586023648284</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6645,7 +6645,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
         <v>1556.227393153825</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>778.4750021151654</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C32" t="n">
-        <v>409.5124851747536</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D32" t="n">
-        <v>51.24678656800311</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="E32" t="n">
-        <v>51.24678656800311</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F32" t="n">
-        <v>51.24678656800311</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H32" t="n">
         <v>51.24678656800311</v>
@@ -6700,13 +6700,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2535.029648422113</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U32" t="n">
-        <v>2281.448587686293</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V32" t="n">
-        <v>2281.448587686293</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W32" t="n">
-        <v>1928.679932416179</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X32" t="n">
-        <v>1555.214174155099</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y32" t="n">
-        <v>1165.074842179287</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="33">
@@ -6761,19 +6761,19 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756901</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I33" t="n">
         <v>51.24678656800311</v>
@@ -6791,16 +6791,16 @@
         <v>1081.114527508758</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.293511287796</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O33" t="n">
-        <v>2047.363946463958</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.546680296255</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400155</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>864.3549109336325</v>
+        <v>155.629344792067</v>
       </c>
       <c r="C34" t="n">
-        <v>695.4187280057256</v>
+        <v>155.629344792067</v>
       </c>
       <c r="D34" t="n">
-        <v>545.3020885933898</v>
+        <v>155.629344792067</v>
       </c>
       <c r="E34" t="n">
-        <v>397.3889950109967</v>
+        <v>155.629344792067</v>
       </c>
       <c r="F34" t="n">
-        <v>397.3889950109967</v>
+        <v>155.629344792067</v>
       </c>
       <c r="G34" t="n">
-        <v>229.4025303192753</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H34" t="n">
-        <v>80.66363218278153</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I34" t="n">
         <v>51.24678656800311</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T34" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V34" t="n">
-        <v>1381.76163186861</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W34" t="n">
-        <v>1092.34446183165</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X34" t="n">
-        <v>864.3549109336325</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y34" t="n">
-        <v>864.3549109336325</v>
+        <v>155.629344792067</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1164.26325471341</v>
+        <v>1452.155307492517</v>
       </c>
       <c r="C35" t="n">
-        <v>795.3007377729979</v>
+        <v>1452.155307492517</v>
       </c>
       <c r="D35" t="n">
-        <v>437.0350391662474</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E35" t="n">
-        <v>51.24678656800311</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F35" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G35" t="n">
         <v>51.24678656800311</v>
@@ -6940,7 +6940,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
         <v>795.7553530872915</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2485.843149702901</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2277.097508308726</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U35" t="n">
-        <v>2277.097508308726</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V35" t="n">
-        <v>2277.097508308726</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W35" t="n">
-        <v>1924.328853038611</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X35" t="n">
-        <v>1550.863094777531</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y35" t="n">
-        <v>1550.863094777531</v>
+        <v>1838.755147556639</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F36" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I36" t="n">
         <v>51.24678656800311</v>
@@ -7019,25 +7019,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>423.148951518066</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L36" t="n">
-        <v>1057.327935297104</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M36" t="n">
-        <v>1420.589954256325</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N36" t="n">
-        <v>1807.87508285327</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.945518029432</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.128251861729</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q36" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1506.140851855881</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C37" t="n">
-        <v>1506.140851855881</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D37" t="n">
-        <v>1506.140851855881</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E37" t="n">
-        <v>1506.140851855881</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F37" t="n">
-        <v>1399.720504392483</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G37" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H37" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K37" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M37" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N37" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O37" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P37" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q37" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>2339.360847594891</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>2050.242510098728</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V37" t="n">
-        <v>1795.558021892841</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W37" t="n">
-        <v>1506.140851855881</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X37" t="n">
-        <v>1506.140851855881</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y37" t="n">
-        <v>1506.140851855881</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1432.831501090108</v>
+        <v>1329.838061543122</v>
       </c>
       <c r="C38" t="n">
-        <v>1432.831501090108</v>
+        <v>1329.838061543122</v>
       </c>
       <c r="D38" t="n">
-        <v>1074.565802483357</v>
+        <v>971.5723629363713</v>
       </c>
       <c r="E38" t="n">
-        <v>688.7775498851129</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F38" t="n">
-        <v>277.7916450955053</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G38" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816072</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P38" t="n">
         <v>2360.886721764997</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W38" t="n">
-        <v>2209.570673130041</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X38" t="n">
-        <v>2209.570673130041</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y38" t="n">
-        <v>1819.431341154229</v>
+        <v>1716.437901607243</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E39" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G39" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I39" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L39" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M39" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N39" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O39" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q39" t="n">
         <v>2562.339328400155</v>
@@ -7292,7 +7292,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X39" t="n">
         <v>1307.279776881661</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1642.491563491408</v>
+        <v>424.9489116651092</v>
       </c>
       <c r="C40" t="n">
-        <v>1473.555380563501</v>
+        <v>424.9489116651092</v>
       </c>
       <c r="D40" t="n">
-        <v>1323.438741151165</v>
+        <v>274.8322722527735</v>
       </c>
       <c r="E40" t="n">
-        <v>1175.525647568772</v>
+        <v>274.8322722527735</v>
       </c>
       <c r="F40" t="n">
-        <v>1028.635700070862</v>
+        <v>127.9423247548631</v>
       </c>
       <c r="G40" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H40" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K40" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L40" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M40" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N40" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O40" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P40" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T40" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U40" t="n">
-        <v>2562.339328400155</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V40" t="n">
-        <v>2562.339328400155</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W40" t="n">
-        <v>2272.922158363195</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X40" t="n">
-        <v>2044.932607465177</v>
+        <v>606.597376495349</v>
       </c>
       <c r="Y40" t="n">
-        <v>1824.140028321647</v>
+        <v>606.597376495349</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>724.2684475108446</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C41" t="n">
-        <v>355.3059305704328</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D41" t="n">
-        <v>355.3059305704328</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="E41" t="n">
-        <v>355.3059305704328</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="F41" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G41" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H41" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I41" t="n">
         <v>51.24678656800311</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2558.304920425543</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T41" t="n">
-        <v>2558.304920425543</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U41" t="n">
-        <v>2558.304920425543</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V41" t="n">
-        <v>2227.242033081972</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W41" t="n">
-        <v>1874.473377811858</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X41" t="n">
-        <v>1501.007619550778</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y41" t="n">
-        <v>1110.868287574966</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G42" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I42" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K42" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L42" t="n">
-        <v>717.8525085495378</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.399656105703</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.578639884741</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P42" t="n">
-        <v>2349.761373717038</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7529,7 +7529,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X42" t="n">
         <v>1307.279776881661</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.24678656800311</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C43" t="n">
-        <v>51.24678656800311</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D43" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E43" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F43" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G43" t="n">
         <v>51.24678656800311</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1333.24891234856</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U43" t="n">
-        <v>1044.130574852398</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V43" t="n">
-        <v>789.4460866465112</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W43" t="n">
-        <v>500.0289166095505</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="X43" t="n">
-        <v>272.0393657115332</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.24678656800311</v>
+        <v>903.5567226295406</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1263.725694231566</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.725694231566</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D44" t="n">
-        <v>1263.725694231566</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F44" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G44" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H44" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I44" t="n">
         <v>51.2467865680031</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2255.189452408018</v>
       </c>
       <c r="U44" t="n">
-        <v>2413.93062453258</v>
+        <v>2001.608391672198</v>
       </c>
       <c r="V44" t="n">
-        <v>2413.93062453258</v>
+        <v>1670.545504328627</v>
       </c>
       <c r="W44" t="n">
-        <v>2413.93062453258</v>
+        <v>1317.776849058513</v>
       </c>
       <c r="X44" t="n">
-        <v>2040.4648662715</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="Y44" t="n">
-        <v>1650.325534295688</v>
+        <v>944.3110907974333</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I45" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0008189145195</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K45" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694941</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M45" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.793729425659</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q45" t="n">
         <v>2562.339328400155</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>940.7932119894607</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="C46" t="n">
-        <v>771.8570290615538</v>
+        <v>700.4297980984784</v>
       </c>
       <c r="D46" t="n">
-        <v>621.7403896492181</v>
+        <v>550.3131586861426</v>
       </c>
       <c r="E46" t="n">
-        <v>473.8272960668249</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F46" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G46" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H46" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I46" t="n">
         <v>51.2467865680031</v>
@@ -7830,28 +7830,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R46" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.223806861248</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>1571.223806861248</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V46" t="n">
-        <v>1571.223806861248</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W46" t="n">
-        <v>1571.223806861248</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="X46" t="n">
-        <v>1343.23425596323</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="Y46" t="n">
-        <v>1122.4416768197</v>
+        <v>869.3659810263853</v>
       </c>
     </row>
   </sheetData>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>218.2111409464629</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>233.4357089658653</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>227.7528737187178</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>226.7777408199137</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>227.6097508526263</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>229.1091522321465</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>136.8385818314783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>140.1317786452013</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>129.2864630672354</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>140.7160931202018</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>132.4654202195568</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>133.8997196622861</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>137.8872852940284</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6717389884799</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>137.5201250048898</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>218.9766784751443</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>187.3190584654285</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>125.134509312112</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>31.66886087721419</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>115.7633935170823</v>
+        <v>72.71068603702844</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>282.9241044809533</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.69383165349829</v>
+        <v>25.09867634130195</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>211.0329012241562</v>
+        <v>163.2630572184531</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.9377812015499</v>
+        <v>25.09867634130195</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>224.3355197601778</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.16955350540354</v>
       </c>
       <c r="R21" t="n">
-        <v>20.9377812015499</v>
+        <v>25.09867634130197</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566558</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3273467878353</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>211.0329012241562</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>20.9377812015499</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9556134883070513</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R30" t="n">
         <v>20.9377812015499</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.0169020165195</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L36" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.91627445172497</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R39" t="n">
         <v>20.9377812015499</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.66059580999811</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>54.9531451156648</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>186.5911984019041</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>20.93778120154988</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>138.581114635048</v>
+        <v>302.3013023779137</v>
       </c>
       <c r="I11" t="n">
-        <v>78.16360657708285</v>
+        <v>70.53873847619406</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.0722578696038</v>
+        <v>207.206481068835</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>357.7699178131293</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5072338470352</v>
+        <v>135.4014128471632</v>
       </c>
       <c r="H12" t="n">
-        <v>84.72712214918255</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.17372043046386</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>17.3121699253295</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3627843393969</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>106.4862101721974</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.0838226109872</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.6415993865939</v>
       </c>
       <c r="T13" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.5625899079564</v>
+        <v>104.4228119489032</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.7510766209753</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>303.1013549834532</v>
+        <v>302.3013023779137</v>
       </c>
       <c r="I14" t="n">
-        <v>73.55048294831042</v>
+        <v>2.200940230447586</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>128.086596960579</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>99.27056015734362</v>
+        <v>251.0552703882194</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18824315139786</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.644370379108084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3627843393969</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.7510386106894</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>106.4862101721974</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.0838226109872</v>
       </c>
       <c r="S16" t="n">
-        <v>196.252289576178</v>
+        <v>195.6415993865939</v>
       </c>
       <c r="T16" t="n">
-        <v>221.1384819809298</v>
+        <v>220.9887561650171</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2321301124821</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>133.3740133384205</v>
+        <v>213.5303158860622</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.7907424631435</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>302.3013023779137</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>70.53873847619406</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>126.3064237640716</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>52.90695138582836</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>93.47880518414399</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.53032196995871</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>36.70445561838913</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>61.17487769894802</v>
+        <v>97.89523434038114</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3627843393969</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>147.7510386106894</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7965952039006</v>
+        <v>106.4862101721974</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>104.0838226109872</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>75.11812358653049</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>302.3013023779137</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247049</v>
+        <v>70.53873847619408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>134.505096805848</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>17.10414753909573</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>135.6094352333961</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551288</v>
+        <v>147.7510386106894</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7965952039006</v>
+        <v>106.4862101721974</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>104.0838226109872</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>195.6415993865939</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>43.88264626714528</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2302187190875</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>44.21953724708737</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>184.8554019960399</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>10.98396408902607</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>42.08231538110799</v>
       </c>
       <c r="G25" t="n">
-        <v>62.96786740298093</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>39.84424451332158</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>47.9930950225361</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>34.04393429357233</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551288</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>62.96786740298108</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>300.4707155810878</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>351.0977320668028</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.14103276810768</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>221.3469283095113</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247049</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>179.6216018019718</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.96786740298093</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
-        <v>75.67391804526994</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>168.1377244923416</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.72099848851248</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>40.06490403416791</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>354.9417106547133</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>187.2682928307268</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
@@ -25450,10 +25450,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>115.3258519193759</v>
+        <v>90.37801723981278</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551288</v>
@@ -25599,25 +25599,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>265.727705649485</v>
       </c>
       <c r="G41" t="n">
         <v>411.547702772954</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>119.4581515039281</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>110.0690483121601</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>147.2515091551288</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>22.14103276810769</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>26.03202314681238</v>
       </c>
       <c r="U44" t="n">
-        <v>104.1206332995625</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>111.3374114724753</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>36.98748233845646</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>328168.3612504597</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723694.6652742511</v>
+        <v>765679.8346017759</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>749096.1245677229</v>
+        <v>765679.834601776</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792269.0249116812</v>
+        <v>765679.834601776</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792269.0249116811</v>
+        <v>765679.8346017762</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792269.0249116811</v>
+        <v>792269.0249116812</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792269.024911681</v>
+        <v>792269.0249116812</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792269.0249116813</v>
+        <v>792269.0249116812</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102132.035254874</v>
+        <v>102132.0352548741</v>
       </c>
       <c r="C2" t="n">
         <v>102132.0352548741</v>
       </c>
       <c r="D2" t="n">
-        <v>102391.165368141</v>
+        <v>102132.0352548741</v>
       </c>
       <c r="E2" t="n">
-        <v>265569.8802231802</v>
+        <v>280939.4847816204</v>
       </c>
       <c r="F2" t="n">
-        <v>274868.6490694461</v>
+        <v>280939.4847816206</v>
       </c>
       <c r="G2" t="n">
-        <v>290673.0489695932</v>
+        <v>280939.4847816204</v>
       </c>
       <c r="H2" t="n">
-        <v>290673.0489695932</v>
+        <v>280939.4847816205</v>
       </c>
       <c r="I2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="J2" t="n">
+        <v>290673.0489695931</v>
+      </c>
+      <c r="K2" t="n">
         <v>290673.0489695932</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>290673.0489695931</v>
+      </c>
+      <c r="M2" t="n">
         <v>290673.0489695933</v>
       </c>
-      <c r="L2" t="n">
-        <v>290673.0489695932</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>290673.0489695931</v>
-      </c>
-      <c r="N2" t="n">
-        <v>290673.0489695933</v>
       </c>
       <c r="O2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="P2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695932</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3146.347615853227</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>844785.716100935</v>
+        <v>905263.6600220248</v>
       </c>
       <c r="F3" t="n">
-        <v>33978.73792806685</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56324.23054369213</v>
+        <v>1.330078872595296e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33606.32541564694</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135097.2156759871</v>
+        <v>150121.4568185952</v>
       </c>
       <c r="N3" t="n">
-        <v>8933.815058388263</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14919.02781375653</v>
+        <v>1.167830456861669e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>53753.7027657232</v>
       </c>
       <c r="D4" t="n">
-        <v>53328.91736755468</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="E4" t="n">
-        <v>11294.48931476125</v>
+        <v>12071.25624221841</v>
       </c>
       <c r="F4" t="n">
-        <v>11764.4412955285</v>
+        <v>12071.25624221843</v>
       </c>
       <c r="G4" t="n">
-        <v>12563.18241499341</v>
+        <v>12071.25624221843</v>
       </c>
       <c r="H4" t="n">
-        <v>12563.18241499341</v>
+        <v>12071.25624221843</v>
       </c>
       <c r="I4" t="n">
         <v>12563.18241499341</v>
@@ -26475,19 +26475,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33707.69021107268</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>51571.48185587232</v>
+        <v>56309.55358208728</v>
       </c>
       <c r="F5" t="n">
-        <v>54438.06398500754</v>
+        <v>56309.55358208729</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984471</v>
+        <v>56309.55358208729</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.17243984471</v>
+        <v>56309.55358208729</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.73248915085</v>
+        <v>-399.9414808839028</v>
       </c>
       <c r="C6" t="n">
-        <v>14750.73248915086</v>
+        <v>-399.9414808839028</v>
       </c>
       <c r="D6" t="n">
-        <v>12208.21017366044</v>
+        <v>-399.9414808839028</v>
       </c>
       <c r="E6" t="n">
-        <v>-642081.8070483883</v>
+        <v>-698444.7406386002</v>
       </c>
       <c r="F6" t="n">
-        <v>174687.4058608433</v>
+        <v>206818.9193834247</v>
       </c>
       <c r="G6" t="n">
-        <v>162475.463571063</v>
+        <v>206818.9193834244</v>
       </c>
       <c r="H6" t="n">
-        <v>218799.6941147551</v>
+        <v>206818.9193834246</v>
       </c>
       <c r="I6" t="n">
-        <v>218799.6941147551</v>
+        <v>179965.9059772165</v>
       </c>
       <c r="J6" t="n">
-        <v>218799.6941147551</v>
+        <v>213572.2313928634</v>
       </c>
       <c r="K6" t="n">
-        <v>218799.6941147552</v>
+        <v>213572.2313928634</v>
       </c>
       <c r="L6" t="n">
-        <v>218799.6941147551</v>
+        <v>213572.2313928634</v>
       </c>
       <c r="M6" t="n">
-        <v>83702.47843876794</v>
+        <v>63450.77457426832</v>
       </c>
       <c r="N6" t="n">
-        <v>209865.8790563669</v>
+        <v>213572.2313928634</v>
       </c>
       <c r="O6" t="n">
-        <v>203880.6663009986</v>
+        <v>213572.2313928633</v>
       </c>
       <c r="P6" t="n">
-        <v>218799.694114755</v>
+        <v>213572.2313928634</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>853.7106645376851</v>
+        <v>902.9081469343154</v>
       </c>
       <c r="F3" t="n">
-        <v>883.4756474222488</v>
+        <v>902.9081469343153</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175392</v>
+        <v>902.9081469343153</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175392</v>
+        <v>902.9081469343151</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175392</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261643</v>
+        <v>602.4038812322237</v>
       </c>
       <c r="F4" t="n">
-        <v>578.5903761710939</v>
+        <v>602.403881232224</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000389</v>
+        <v>602.403881232224</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000389</v>
+        <v>602.403881232224</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>850.0368016444428</v>
+        <v>902.9081469343154</v>
       </c>
       <c r="F3" t="n">
-        <v>29.76498288456366</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50.5892446952904</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>31.15674518322407</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261643</v>
+        <v>602.4038812322237</v>
       </c>
       <c r="F4" t="n">
-        <v>36.47541944492968</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>61.99445592894494</v>
+        <v>4.852797024993326e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>38.18095086781489</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.1149567261643</v>
+        <v>602.4038812322242</v>
       </c>
       <c r="N4" t="n">
-        <v>36.47541944492956</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>61.99445592894494</v>
+        <v>4.852797024993326e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.1149567261643</v>
+        <v>602.4038812322237</v>
       </c>
       <c r="N4" t="n">
-        <v>36.47541944492968</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>61.99445592894494</v>
+        <v>4.852797024993326e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9277519194678707</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006624998659945164</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05890226081296705</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9849566189522113</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2978840306553525</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02830681245612933</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.432002671508279</v>
+        <v>3.629781495213325</v>
       </c>
       <c r="H11" t="n">
-        <v>35.14799735958417</v>
+        <v>37.17349973785348</v>
       </c>
       <c r="I11" t="n">
-        <v>132.3122829933231</v>
+        <v>139.9371510942119</v>
       </c>
       <c r="J11" t="n">
-        <v>291.2869367409261</v>
+        <v>308.0731671793623</v>
       </c>
       <c r="K11" t="n">
-        <v>436.5636098258717</v>
+        <v>461.7218178717424</v>
       </c>
       <c r="L11" t="n">
-        <v>541.5957615840433</v>
+        <v>572.8067433058774</v>
       </c>
       <c r="M11" t="n">
-        <v>602.6296390934787</v>
+        <v>637.3578699713772</v>
       </c>
       <c r="N11" t="n">
-        <v>612.3808166839016</v>
+        <v>647.6709866446522</v>
       </c>
       <c r="O11" t="n">
-        <v>578.253840119091</v>
+        <v>611.5773469016247</v>
       </c>
       <c r="P11" t="n">
-        <v>493.5262741662303</v>
+        <v>521.9671162385456</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.61767849284</v>
+        <v>391.9755664412182</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141322</v>
+        <v>228.0092618486943</v>
       </c>
       <c r="S11" t="n">
-        <v>78.20676087699499</v>
+        <v>82.71364582217373</v>
       </c>
       <c r="T11" t="n">
-        <v>15.0235916945275</v>
+        <v>15.88936849529634</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.290382519617066</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.836283316175398</v>
+        <v>1.942104316047395</v>
       </c>
       <c r="H12" t="n">
-        <v>17.73463097464135</v>
+        <v>18.75663905235248</v>
       </c>
       <c r="I12" t="n">
-        <v>63.22291242095122</v>
+        <v>66.86631088145639</v>
       </c>
       <c r="J12" t="n">
-        <v>173.4885040076064</v>
+        <v>183.486267859548</v>
       </c>
       <c r="K12" t="n">
-        <v>296.5194861913581</v>
+        <v>313.6072570347235</v>
       </c>
       <c r="L12" t="n">
-        <v>398.7070419616803</v>
+        <v>421.6836586224838</v>
       </c>
       <c r="M12" t="n">
-        <v>465.2723121730384</v>
+        <v>492.0849400792018</v>
       </c>
       <c r="N12" t="n">
-        <v>477.5866858152849</v>
+        <v>505.1089641986601</v>
       </c>
       <c r="O12" t="n">
-        <v>436.898513388451</v>
+        <v>462.0760211957152</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6495746475636</v>
+        <v>370.8567443511908</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.3999545349509</v>
+        <v>247.9079123431728</v>
       </c>
       <c r="R12" t="n">
-        <v>114.0106430867498</v>
+        <v>120.580827622662</v>
       </c>
       <c r="S12" t="n">
-        <v>34.10815721053863</v>
+        <v>36.07373587044173</v>
       </c>
       <c r="T12" t="n">
-        <v>7.401510384057852</v>
+        <v>7.828043273892788</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1277700207925919</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.539478247526973</v>
+        <v>1.62819501906188</v>
       </c>
       <c r="H13" t="n">
-        <v>13.68736114619437</v>
+        <v>14.47613389675018</v>
       </c>
       <c r="I13" t="n">
-        <v>46.29630948017481</v>
+        <v>48.96426475506092</v>
       </c>
       <c r="J13" t="n">
-        <v>108.841112100157</v>
+        <v>115.1133878476749</v>
       </c>
       <c r="K13" t="n">
-        <v>178.8593818490428</v>
+        <v>189.1666576691893</v>
       </c>
       <c r="L13" t="n">
-        <v>228.8784296368738</v>
+        <v>242.0681940157999</v>
       </c>
       <c r="M13" t="n">
-        <v>241.3202129282508</v>
+        <v>255.2269701243999</v>
       </c>
       <c r="N13" t="n">
-        <v>235.5821576420142</v>
+        <v>249.1582432351695</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5982526595399</v>
+        <v>230.1379650579465</v>
       </c>
       <c r="P13" t="n">
-        <v>186.1928964099895</v>
+        <v>196.922786669084</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.9103103451905</v>
+        <v>136.3391301870816</v>
       </c>
       <c r="R13" t="n">
-        <v>69.22054011153097</v>
+        <v>73.20956876618233</v>
       </c>
       <c r="S13" t="n">
-        <v>26.82890727735642</v>
+        <v>28.37499865037839</v>
       </c>
       <c r="T13" t="n">
-        <v>6.577770693978883</v>
+        <v>6.956833263264395</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08881063740337537</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.551660894159792</v>
+        <v>3.629781495213325</v>
       </c>
       <c r="H14" t="n">
-        <v>36.37344713231398</v>
+        <v>37.17349973785348</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9254066220955</v>
+        <v>139.9371510942119</v>
       </c>
       <c r="J14" t="n">
-        <v>301.4427788156949</v>
+        <v>308.0731671793622</v>
       </c>
       <c r="K14" t="n">
-        <v>451.7845844654789</v>
+        <v>461.7218178717424</v>
       </c>
       <c r="L14" t="n">
-        <v>560.4787265551217</v>
+        <v>572.8067433058773</v>
       </c>
       <c r="M14" t="n">
-        <v>623.6405759816359</v>
+        <v>637.3578699713772</v>
       </c>
       <c r="N14" t="n">
-        <v>633.7317324971675</v>
+        <v>647.6709866446521</v>
       </c>
       <c r="O14" t="n">
-        <v>598.4149044808661</v>
+        <v>611.5773469016245</v>
       </c>
       <c r="P14" t="n">
-        <v>510.7332761562961</v>
+        <v>521.9671162385455</v>
       </c>
       <c r="Q14" t="n">
-        <v>383.5394203841985</v>
+        <v>391.9755664412182</v>
       </c>
       <c r="R14" t="n">
-        <v>223.1020186427652</v>
+        <v>228.0092618486942</v>
       </c>
       <c r="S14" t="n">
-        <v>80.93347262566633</v>
+        <v>82.71364582217373</v>
       </c>
       <c r="T14" t="n">
-        <v>15.54739556418449</v>
+        <v>15.88936849529634</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2841328715327833</v>
+        <v>0.290382519617066</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.900306109549743</v>
+        <v>1.942104316047395</v>
       </c>
       <c r="H15" t="n">
-        <v>18.35295637380936</v>
+        <v>18.75663905235248</v>
       </c>
       <c r="I15" t="n">
-        <v>65.42720596476089</v>
+        <v>66.86631088145637</v>
       </c>
       <c r="J15" t="n">
-        <v>179.5372539728553</v>
+        <v>183.486267859548</v>
       </c>
       <c r="K15" t="n">
-        <v>306.8577633126881</v>
+        <v>313.6072570347235</v>
       </c>
       <c r="L15" t="n">
-        <v>412.6081313739475</v>
+        <v>421.6836586224838</v>
       </c>
       <c r="M15" t="n">
-        <v>481.4942278451255</v>
+        <v>492.0849400792018</v>
       </c>
       <c r="N15" t="n">
-        <v>494.2379473253956</v>
+        <v>505.10896419866</v>
       </c>
       <c r="O15" t="n">
-        <v>452.1311645822145</v>
+        <v>462.0760211957151</v>
       </c>
       <c r="P15" t="n">
-        <v>362.8751201648101</v>
+        <v>370.8567443511908</v>
       </c>
       <c r="Q15" t="n">
-        <v>242.5724079488409</v>
+        <v>247.9079123431728</v>
       </c>
       <c r="R15" t="n">
-        <v>117.9856723104657</v>
+        <v>120.580827622662</v>
       </c>
       <c r="S15" t="n">
-        <v>35.29735251729454</v>
+        <v>36.07373587044172</v>
       </c>
       <c r="T15" t="n">
-        <v>7.659567169632513</v>
+        <v>7.828043273892787</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1250201387861673</v>
+        <v>0.1277700207925918</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.593152806827006</v>
+        <v>1.62819501906188</v>
       </c>
       <c r="H16" t="n">
-        <v>14.16457677342557</v>
+        <v>14.47613389675018</v>
       </c>
       <c r="I16" t="n">
-        <v>47.91044986348852</v>
+        <v>48.96426475506091</v>
       </c>
       <c r="J16" t="n">
-        <v>112.6359034426693</v>
+        <v>115.1133878476749</v>
       </c>
       <c r="K16" t="n">
-        <v>185.0953897386285</v>
+        <v>189.1666576691893</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8583727531714</v>
+        <v>242.0681940157999</v>
       </c>
       <c r="M16" t="n">
-        <v>249.7339440738005</v>
+        <v>255.2269701243999</v>
       </c>
       <c r="N16" t="n">
-        <v>243.7958290665364</v>
+        <v>249.1582432351695</v>
       </c>
       <c r="O16" t="n">
-        <v>225.18490764133</v>
+        <v>230.1379650579465</v>
       </c>
       <c r="P16" t="n">
-        <v>192.6845903820589</v>
+        <v>196.922786669084</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.4048227607596</v>
+        <v>136.3391301870816</v>
       </c>
       <c r="R16" t="n">
-        <v>71.63394347787609</v>
+        <v>73.20956876618233</v>
       </c>
       <c r="S16" t="n">
-        <v>27.76430846079426</v>
+        <v>28.37499865037839</v>
       </c>
       <c r="T16" t="n">
-        <v>6.807107447351751</v>
+        <v>6.956833263264394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08689924400874588</v>
+        <v>0.08881063740337536</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755034742181059</v>
+        <v>3.629781495213325</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336179</v>
+        <v>37.17349973785348</v>
       </c>
       <c r="I17" t="n">
-        <v>144.7659768979354</v>
+        <v>139.9371510942119</v>
       </c>
       <c r="J17" t="n">
-        <v>318.70387994919</v>
+        <v>308.0731671793622</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857143</v>
+        <v>461.7218178717424</v>
       </c>
       <c r="L17" t="n">
-        <v>592.572645076738</v>
+        <v>572.8067433058773</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730004</v>
+        <v>637.3578699713772</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342224</v>
+        <v>647.6709866446521</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166595</v>
+        <v>611.5773469016245</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190645</v>
+        <v>521.9671162385455</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147052</v>
+        <v>391.9755664412182</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235312</v>
+        <v>228.0092618486942</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745098</v>
+        <v>82.71364582217373</v>
       </c>
       <c r="T17" t="n">
-        <v>16.4376645838976</v>
+        <v>15.88936849529634</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.290382519617066</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.00912071134716</v>
+        <v>1.942104316047395</v>
       </c>
       <c r="H18" t="n">
-        <v>19.40387634380021</v>
+        <v>18.75663905235248</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436494</v>
+        <v>66.86631088145637</v>
       </c>
       <c r="J18" t="n">
-        <v>189.8178475575841</v>
+        <v>183.486267859548</v>
       </c>
       <c r="K18" t="n">
-        <v>324.4289352178438</v>
+        <v>313.6072570347235</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177244</v>
+        <v>421.6836586224838</v>
       </c>
       <c r="M18" t="n">
-        <v>509.0653662040588</v>
+        <v>492.0849400792018</v>
       </c>
       <c r="N18" t="n">
-        <v>522.5388116762072</v>
+        <v>505.10896419866</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405675</v>
+        <v>462.0760211957151</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378625</v>
+        <v>370.8567443511908</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.4624964168761</v>
+        <v>247.9079123431728</v>
       </c>
       <c r="R18" t="n">
-        <v>124.7417227624141</v>
+        <v>120.580827622662</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997902</v>
+        <v>36.07373587044172</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000172</v>
+        <v>7.828043273892787</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1277700207925918</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.684379313654579</v>
+        <v>1.62819501906188</v>
       </c>
       <c r="H19" t="n">
-        <v>14.97566335231072</v>
+        <v>14.47613389675018</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65387972335771</v>
+        <v>48.96426475506091</v>
       </c>
       <c r="J19" t="n">
-        <v>119.0856174753787</v>
+        <v>115.1133878476749</v>
       </c>
       <c r="K19" t="n">
-        <v>195.6942511682319</v>
+        <v>189.1666576691893</v>
       </c>
       <c r="L19" t="n">
-        <v>250.4212663227908</v>
+        <v>242.0681940157999</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0341136849627</v>
+        <v>255.2269701243999</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067959</v>
+        <v>249.1582432351695</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154673</v>
+        <v>230.1379650579465</v>
       </c>
       <c r="P19" t="n">
-        <v>203.7180217169137</v>
+        <v>196.922786669084</v>
       </c>
       <c r="Q19" t="n">
-        <v>141.0437987097484</v>
+        <v>136.3391301870816</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759585</v>
+        <v>73.20956876618233</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523479</v>
+        <v>28.37499865037839</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069562</v>
+        <v>6.956833263264394</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.08881063740337536</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.755034742181059</v>
+        <v>3.629781495213324</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336179</v>
+        <v>37.17349973785347</v>
       </c>
       <c r="I20" t="n">
-        <v>144.7659768979354</v>
+        <v>139.9371510942118</v>
       </c>
       <c r="J20" t="n">
-        <v>318.70387994919</v>
+        <v>308.0731671793622</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857143</v>
+        <v>461.7218178717423</v>
       </c>
       <c r="L20" t="n">
-        <v>592.572645076738</v>
+        <v>572.8067433058771</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730004</v>
+        <v>637.3578699713771</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342224</v>
+        <v>647.6709866446521</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166595</v>
+        <v>611.5773469016245</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190645</v>
+        <v>521.9671162385455</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.5015080147052</v>
+        <v>391.9755664412182</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235312</v>
+        <v>228.0092618486942</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745098</v>
+        <v>82.71364582217372</v>
       </c>
       <c r="T20" t="n">
-        <v>16.4376645838976</v>
+        <v>15.88936849529634</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2903825196170659</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.00912071134716</v>
+        <v>1.942104316047395</v>
       </c>
       <c r="H21" t="n">
-        <v>19.40387634380021</v>
+        <v>18.75663905235248</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436494</v>
+        <v>66.86631088145637</v>
       </c>
       <c r="J21" t="n">
-        <v>189.8178475575841</v>
+        <v>183.486267859548</v>
       </c>
       <c r="K21" t="n">
-        <v>324.4289352178438</v>
+        <v>313.6072570347234</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177244</v>
+        <v>421.6836586224837</v>
       </c>
       <c r="M21" t="n">
-        <v>509.0653662040588</v>
+        <v>492.0849400792017</v>
       </c>
       <c r="N21" t="n">
-        <v>522.5388116762072</v>
+        <v>505.10896419866</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405675</v>
+        <v>462.076021195715</v>
       </c>
       <c r="P21" t="n">
-        <v>383.6539365378625</v>
+        <v>370.8567443511907</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.4624964168761</v>
+        <v>247.9079123431727</v>
       </c>
       <c r="R21" t="n">
-        <v>124.7417227624141</v>
+        <v>120.580827622662</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997902</v>
+        <v>36.07373587044172</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000172</v>
+        <v>7.828043273892786</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1277700207925918</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.684379313654579</v>
+        <v>1.628195019061879</v>
       </c>
       <c r="H22" t="n">
-        <v>14.97566335231072</v>
+        <v>14.47613389675018</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65387972335771</v>
+        <v>48.9642647550609</v>
       </c>
       <c r="J22" t="n">
-        <v>119.0856174753787</v>
+        <v>115.1133878476749</v>
       </c>
       <c r="K22" t="n">
-        <v>195.6942511682319</v>
+        <v>189.1666576691892</v>
       </c>
       <c r="L22" t="n">
-        <v>250.4212663227908</v>
+        <v>242.0681940157999</v>
       </c>
       <c r="M22" t="n">
-        <v>264.0341136849627</v>
+        <v>255.2269701243999</v>
       </c>
       <c r="N22" t="n">
-        <v>257.7559726067959</v>
+        <v>249.1582432351694</v>
       </c>
       <c r="O22" t="n">
-        <v>238.0793597154673</v>
+        <v>230.1379650579465</v>
       </c>
       <c r="P22" t="n">
-        <v>203.7180217169137</v>
+        <v>196.922786669084</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.0437987097484</v>
+        <v>136.3391301870816</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759585</v>
+        <v>73.20956876618231</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523479</v>
+        <v>28.37499865037838</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069562</v>
+        <v>6.956833263264393</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.08881063740337536</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.2410322142398</v>
+        <v>127.027262652676</v>
       </c>
       <c r="K11" t="n">
-        <v>216.4737587808911</v>
+        <v>241.6319668267619</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8293466140561</v>
+        <v>337.0403283358901</v>
       </c>
       <c r="M11" t="n">
-        <v>372.283405866206</v>
+        <v>407.0116367441045</v>
       </c>
       <c r="N11" t="n">
-        <v>382.9677530873107</v>
+        <v>418.2579230480613</v>
       </c>
       <c r="O11" t="n">
-        <v>348.1556286974043</v>
+        <v>381.4791354799379</v>
       </c>
       <c r="P11" t="n">
-        <v>262.2932784109608</v>
+        <v>290.7341204832761</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.3119886183905</v>
+        <v>169.6698765667687</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>12.42372403456213</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.6508773409397</v>
+        <v>182.7396765332902</v>
       </c>
       <c r="K12" t="n">
-        <v>158.6780472169991</v>
+        <v>175.7658180603645</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1526621818061</v>
+        <v>283.1292788426097</v>
       </c>
       <c r="M12" t="n">
-        <v>542.1149567261643</v>
+        <v>349.9509061571835</v>
       </c>
       <c r="N12" t="n">
-        <v>533.56403219738</v>
+        <v>373.7672521153268</v>
       </c>
       <c r="O12" t="n">
-        <v>294.3022689440066</v>
+        <v>319.4797767512707</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6751672332334</v>
+        <v>362.0168462489725</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.41818044892935</v>
+        <v>318.0034259930004</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.42299347001888</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.48193198348422</v>
+        <v>21.75420773100214</v>
       </c>
       <c r="K13" t="n">
-        <v>156.58989002316</v>
+        <v>166.8971658433064</v>
       </c>
       <c r="L13" t="n">
-        <v>256.46845489719</v>
+        <v>269.658219276116</v>
       </c>
       <c r="M13" t="n">
-        <v>280.9040898900914</v>
+        <v>294.8108470862405</v>
       </c>
       <c r="N13" t="n">
-        <v>279.7143300212427</v>
+        <v>293.2904156143981</v>
       </c>
       <c r="O13" t="n">
-        <v>242.1833805735795</v>
+        <v>254.7230929719862</v>
       </c>
       <c r="P13" t="n">
-        <v>183.4714556748829</v>
+        <v>194.2013459339775</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.74826709349607</v>
+        <v>50.17708693538724</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>120.3968742890086</v>
+        <v>127.0272626526759</v>
       </c>
       <c r="K14" t="n">
-        <v>231.6947334204984</v>
+        <v>241.6319668267618</v>
       </c>
       <c r="L14" t="n">
-        <v>324.7123115851345</v>
+        <v>337.04032833589</v>
       </c>
       <c r="M14" t="n">
-        <v>393.2943427543632</v>
+        <v>407.0116367441045</v>
       </c>
       <c r="N14" t="n">
-        <v>404.3186689005766</v>
+        <v>418.2579230480612</v>
       </c>
       <c r="O14" t="n">
-        <v>368.3166930591793</v>
+        <v>381.4791354799378</v>
       </c>
       <c r="P14" t="n">
-        <v>279.5002804010265</v>
+        <v>290.7341204832759</v>
       </c>
       <c r="Q14" t="n">
-        <v>161.233730509749</v>
+        <v>169.6698765667687</v>
       </c>
       <c r="R14" t="n">
-        <v>7.516480828633092</v>
+        <v>12.4237240345621</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>178.7906626465975</v>
+        <v>182.7396765332902</v>
       </c>
       <c r="K15" t="n">
-        <v>284.7797178554114</v>
+        <v>248.4765040973929</v>
       </c>
       <c r="L15" t="n">
-        <v>274.0537515940733</v>
+        <v>283.1292788426096</v>
       </c>
       <c r="M15" t="n">
-        <v>339.3601939231072</v>
+        <v>349.9509061571835</v>
       </c>
       <c r="N15" t="n">
-        <v>362.8962352420623</v>
+        <v>373.7672521153268</v>
       </c>
       <c r="O15" t="n">
-        <v>309.53492013777</v>
+        <v>602.403881232224</v>
       </c>
       <c r="P15" t="n">
-        <v>228.9007127504799</v>
+        <v>236.8823369368606</v>
       </c>
       <c r="Q15" t="n">
-        <v>312.6679215986684</v>
+        <v>107.9261382571513</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.27672332599653</v>
+        <v>21.75420773100213</v>
       </c>
       <c r="K16" t="n">
-        <v>162.8258979127456</v>
+        <v>166.8971658433064</v>
       </c>
       <c r="L16" t="n">
-        <v>264.4483980134876</v>
+        <v>269.658219276116</v>
       </c>
       <c r="M16" t="n">
-        <v>289.3178210356411</v>
+        <v>294.8108470862405</v>
       </c>
       <c r="N16" t="n">
-        <v>287.9280014457651</v>
+        <v>293.2904156143981</v>
       </c>
       <c r="O16" t="n">
-        <v>249.7700355553696</v>
+        <v>254.7230929719862</v>
       </c>
       <c r="P16" t="n">
-        <v>189.9631496469524</v>
+        <v>194.2013459339775</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.24277950906519</v>
+        <v>50.17708693538721</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225037</v>
+        <v>127.0272626526759</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407337</v>
+        <v>241.6319668267618</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067508</v>
+        <v>337.04032833589</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457277</v>
+        <v>407.0116367441045</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376315</v>
+        <v>418.2579230480612</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949727</v>
+        <v>381.4791354799378</v>
       </c>
       <c r="P17" t="n">
-        <v>308.745693963795</v>
+        <v>290.7341204832759</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402557</v>
+        <v>169.6698765667687</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939904</v>
+        <v>12.4237240345621</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091742</v>
+        <v>56.64864119288131</v>
       </c>
       <c r="K18" t="n">
-        <v>397.620397467641</v>
+        <v>339.0288752788176</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378502</v>
+        <v>283.1292788426096</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820405</v>
+        <v>349.9509061571835</v>
       </c>
       <c r="N18" t="n">
-        <v>391.1970995928739</v>
+        <v>373.7672521153268</v>
       </c>
       <c r="O18" t="n">
-        <v>335.424681996123</v>
+        <v>319.4797767512707</v>
       </c>
       <c r="P18" t="n">
-        <v>568.1422977634695</v>
+        <v>555.3451055767978</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308546</v>
+        <v>107.9261382571513</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870594</v>
+        <v>21.75420773100213</v>
       </c>
       <c r="K19" t="n">
-        <v>173.4247593423491</v>
+        <v>166.8971658433064</v>
       </c>
       <c r="L19" t="n">
-        <v>278.0112915831069</v>
+        <v>269.658219276116</v>
       </c>
       <c r="M19" t="n">
-        <v>303.6179906468033</v>
+        <v>294.8108470862405</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860245</v>
+        <v>293.2904156143981</v>
       </c>
       <c r="O19" t="n">
-        <v>262.6644876295069</v>
+        <v>254.7230929719862</v>
       </c>
       <c r="P19" t="n">
-        <v>200.9965809818072</v>
+        <v>194.2013459339775</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.88175545805403</v>
+        <v>50.17708693538721</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225037</v>
+        <v>127.0272626526759</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5646495407337</v>
+        <v>241.6319668267618</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067508</v>
+        <v>337.0403283358899</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457277</v>
+        <v>407.0116367441044</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376315</v>
+        <v>418.2579230480612</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949727</v>
+        <v>381.4791354799378</v>
       </c>
       <c r="P20" t="n">
-        <v>308.745693963795</v>
+        <v>290.7341204832759</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402557</v>
+        <v>169.6698765667687</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939904</v>
+        <v>12.42372403456207</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.98022089091742</v>
+        <v>182.7396765332901</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434848</v>
+        <v>440.231055072943</v>
       </c>
       <c r="L21" t="n">
-        <v>522.015880398028</v>
+        <v>283.1292788426096</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820405</v>
+        <v>349.9509061571834</v>
       </c>
       <c r="N21" t="n">
-        <v>391.1970995928739</v>
+        <v>373.7672521153266</v>
       </c>
       <c r="O21" t="n">
-        <v>640.5848321000389</v>
+        <v>319.4797767512706</v>
       </c>
       <c r="P21" t="n">
-        <v>249.6795291235323</v>
+        <v>236.8823369368605</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308546</v>
+        <v>199.0956917625548</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870594</v>
+        <v>21.75420773100211</v>
       </c>
       <c r="K22" t="n">
-        <v>173.4247593423491</v>
+        <v>166.8971658433064</v>
       </c>
       <c r="L22" t="n">
-        <v>278.0112915831069</v>
+        <v>269.658219276116</v>
       </c>
       <c r="M22" t="n">
-        <v>303.6179906468033</v>
+        <v>294.8108470862405</v>
       </c>
       <c r="N22" t="n">
-        <v>301.8881449860245</v>
+        <v>293.2904156143981</v>
       </c>
       <c r="O22" t="n">
-        <v>262.6644876295069</v>
+        <v>254.7230929719861</v>
       </c>
       <c r="P22" t="n">
-        <v>200.9965809818072</v>
+        <v>194.2013459339774</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.88175545805403</v>
+        <v>50.17708693538721</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313263</v>
+        <v>117.933366006583</v>
       </c>
       <c r="K24" t="n">
-        <v>379.9148430313201</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378502</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K26" t="n">
         <v>257.5646495407337</v>
@@ -36618,7 +36618,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>397.620397467641</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36691,10 +36691,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K29" t="n">
         <v>257.5646495407337</v>
@@ -36855,7 +36855,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R29" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378502</v>
@@ -36925,13 +36925,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O30" t="n">
-        <v>336.3802954844301</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K32" t="n">
         <v>257.5646495407337</v>
@@ -37092,7 +37092,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R32" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N33" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O33" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>249.6795291235323</v>
+        <v>418.422987301597</v>
       </c>
       <c r="Q33" t="n">
-        <v>270.4976243473741</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L36" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820405</v>
@@ -37405,10 +37405,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.3969967825795</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
         <v>451.0527332560634</v>
@@ -37630,7 +37630,7 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
-        <v>631.9617651335549</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N39" t="n">
         <v>391.1970995928739</v>
@@ -37642,7 +37642,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K42" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L42" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620064</v>
       </c>
       <c r="M42" t="n">
         <v>366.9313322820405</v>
@@ -37873,16 +37873,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O42" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P42" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.1413181408527</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>117.9333660065822</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K45" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L45" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M45" t="n">
         <v>366.9313322820406</v>
@@ -38110,13 +38110,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P45" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
